--- a/data/results/quantile/Test_output_1.xlsx
+++ b/data/results/quantile/Test_output_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9257064290249873</v>
+        <v>0.873019694452278</v>
       </c>
       <c r="C110" t="n">
-        <v>6.723257976161132</v>
+        <v>5.050604693327091</v>
       </c>
       <c r="D110" t="n">
-        <v>4.316774709366389</v>
+        <v>4.60896095813881</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8110974286746105</v>
+        <v>0.7985959711043852</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9313881261342959</v>
+        <v>0.8821775514298931</v>
       </c>
       <c r="C111" t="n">
-        <v>6.339639436582475</v>
+        <v>4.794479184597174</v>
       </c>
       <c r="D111" t="n">
-        <v>4.305354247543984</v>
+        <v>4.575295808506404</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7719184315640346</v>
+        <v>0.7586352788915438</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9367662648681252</v>
+        <v>0.8911004340109632</v>
       </c>
       <c r="C112" t="n">
-        <v>5.717422039702587</v>
+        <v>4.643917861621953</v>
       </c>
       <c r="D112" t="n">
-        <v>4.317102541313888</v>
+        <v>4.539725785247104</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8069322633203773</v>
+        <v>0.8054039229527625</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9405992456112096</v>
+        <v>0.899391736264173</v>
       </c>
       <c r="C113" t="n">
-        <v>5.292830404566421</v>
+        <v>4.543866767162854</v>
       </c>
       <c r="D113" t="n">
-        <v>4.381531905445567</v>
+        <v>4.508365916570305</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8070693452886504</v>
+        <v>0.8301212639781839</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9432726290920757</v>
+        <v>0.9072074793788318</v>
       </c>
       <c r="C114" t="n">
-        <v>4.738436993788927</v>
+        <v>4.578269901965481</v>
       </c>
       <c r="D114" t="n">
-        <v>4.34618079930969</v>
+        <v>4.476078735432258</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8177476374038559</v>
+        <v>0.8401713142178358</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9446144607795938</v>
+        <v>0.9140897587675259</v>
       </c>
       <c r="C115" t="n">
-        <v>4.730930576213472</v>
+        <v>4.618235788232441</v>
       </c>
       <c r="D115" t="n">
-        <v>4.30223576201819</v>
+        <v>4.45441245764008</v>
       </c>
       <c r="E115" t="n">
-        <v>0.8217849428362065</v>
+        <v>0.83834071861615</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9452450947382481</v>
+        <v>0.9202925583636641</v>
       </c>
       <c r="C116" t="n">
-        <v>4.553422949594838</v>
+        <v>4.639994727735886</v>
       </c>
       <c r="D116" t="n">
-        <v>4.30681837317123</v>
+        <v>4.435961717886832</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8472145307316967</v>
+        <v>0.8576723265556812</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9454850841372202</v>
+        <v>0.9262064577331202</v>
       </c>
       <c r="C117" t="n">
-        <v>3.935170859489196</v>
+        <v>4.705886992221915</v>
       </c>
       <c r="D117" t="n">
-        <v>4.317774116884217</v>
+        <v>4.425265955635229</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8759090572033621</v>
+        <v>0.8667006676966659</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.944614716204071</v>
+        <v>0.9320912330217113</v>
       </c>
       <c r="C118" t="n">
-        <v>3.699793632482216</v>
+        <v>4.62364093425395</v>
       </c>
       <c r="D118" t="n">
-        <v>4.339242274091918</v>
+        <v>4.419234585465768</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8585129771698159</v>
+        <v>0.8457260599760758</v>
       </c>
     </row>
     <row r="119">
@@ -2449,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9430109474566524</v>
+        <v>0.9377010461742302</v>
       </c>
       <c r="C119" t="n">
-        <v>3.42571213686089</v>
+        <v>4.485420517993729</v>
       </c>
       <c r="D119" t="n">
-        <v>4.378508010067045</v>
+        <v>4.419831116972847</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8609869612086911</v>
+        <v>0.8536563838321647</v>
       </c>
     </row>
     <row r="120">
@@ -2466,16 +2466,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9423845354222917</v>
+        <v>0.9442989314923209</v>
       </c>
       <c r="C120" t="n">
-        <v>3.181520701562083</v>
+        <v>4.463474764518715</v>
       </c>
       <c r="D120" t="n">
-        <v>4.420553202483615</v>
+        <v>4.424372312147152</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8557184700931248</v>
+        <v>0.8461739359494367</v>
       </c>
     </row>
     <row r="121">
@@ -2483,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9427755547072222</v>
+        <v>0.951766596765714</v>
       </c>
       <c r="C121" t="n">
-        <v>3.027996021873869</v>
+        <v>4.415966797050573</v>
       </c>
       <c r="D121" t="n">
-        <v>4.468900971253306</v>
+        <v>4.42982385356269</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9570934507349802</v>
+        <v>0.975949845748817</v>
       </c>
     </row>
   </sheetData>
